--- a/aircraft/reports/top-aircraft-models-over-time.xlsx
+++ b/aircraft/reports/top-aircraft-models-over-time.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
